--- a/AnalizeREQ_TC/test.xlsx
+++ b/AnalizeREQ_TC/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FB6B5-0469-483B-8F32-71891F9FD4B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9E87F-6063-41D6-8079-ED9E8C56F00F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,22 +20,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>6666;55555</t>
-  </si>
-  <si>
-    <t>98765;5485;5239;3284523;28522</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13566-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13564-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13574-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13562-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13550-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13586-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13584-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13572-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13577-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13571-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13585-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13575-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13551-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13565-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13576-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13668-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13567-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13569-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13573-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13563-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13568-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13554-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13749-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13670-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13607-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13608-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6622-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6619-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13611-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13610-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6620-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13615-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13609-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13605-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6625-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6626-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6621-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6617-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6616-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6615-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6618-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-6627-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13612-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13616-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13613-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13606-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13614-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13572-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13571-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13566-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13576-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13577-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13575-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13568-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13668-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13567-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13562-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13569-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13573-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13574-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13603-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13563-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13584-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13564-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13586-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13565-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13585-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14042-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13550-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13566-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13551-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13574-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13569-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13576-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13575-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13573-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13572-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13577-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13567-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13568-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13571-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13550-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13552-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13551-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13617-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13599-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13598-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13596-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13600-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13602-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13327-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13638-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13637-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13559-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13684-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13692-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13556-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13637-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13604-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13591-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13546-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14455-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13327-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13669-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14081-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14082-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14093-0000232f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,14 +126,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -343,39 +414,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B22" sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>123</v>
-      </c>
-      <c r="B1">
-        <v>6666</v>
+        <v>18024</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>321</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+        <v>21786</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>53</v>
+        <v>11139</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19461</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10864</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10847</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11455</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10813</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>21452</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21598</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10865</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21453</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11309</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10854</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21600</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13609</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{305541CE-C117-4498-A0AA-C33954E82F7D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AnalizeREQ_TC/test.xlsx
+++ b/AnalizeREQ_TC/test.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9E87F-6063-41D6-8079-ED9E8C56F00F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12738C45-2C8F-408A-B10B-8E0C8482E3F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
   <si>
     <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13566-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13564-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13574-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13562-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13550-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13586-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13584-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13572-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13577-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13571-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13585-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13575-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13551-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13565-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13576-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13668-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13567-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13569-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13573-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13563-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13568-0000232f</t>
   </si>
@@ -86,6 +87,345 @@
   </si>
   <si>
     <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14081-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14082-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14093-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-11678-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-11528-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13569-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13566-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13568-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13571-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13566-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13571-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13569-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13568-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14510-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14562-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14517-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14611-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14612-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-14613-0000232f</t>
+  </si>
+  <si>
+    <t>https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13105-0000232f,https://doors.dgs.com:8443/dwa/rm/urn:rational::1-4fa78175254e4271-O-13104-0000232f</t>
+  </si>
+  <si>
+    <t>REQ: 13566 Exist: 6 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13564 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13574 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13562 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13550 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13586 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13584 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13572 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13577 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13571 Exist: 6 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13585 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13575 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13551 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13565 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13576 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13668 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13567 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13569 Exist: 6 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13573 Exist: 4 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13563 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13568 Exist: 6 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13554 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13749 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13670 Exist: 3 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13607 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13608 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6622 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6619 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13611 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13610 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6620 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13615 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13609 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13605 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6625 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6626 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6621 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6617 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6616 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6615 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6618 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 6627 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13612 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13616 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13613 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13606 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13614 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13603 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14042 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13552 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13617 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13599 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13598 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13596 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13600 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13602 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13327 Exist: 2 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13638 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13637 Exist: 2 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13559 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13684 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13692 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13556 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13604 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13591 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13546 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14455 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13669 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14081 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14082 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14093 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 11528 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 11678 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14510 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14562 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14517 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14611 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14612 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 14613 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13105 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>REQ: 13104 Exist: 1 x in TC :</t>
+  </si>
+  <si>
+    <t>For Directionality, the default values for the age brackets shall be: 1st , 2nd and 3rd - Open Automatic</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>The default range of the 2nd age bracket shall be from 4 to under 11 years.</t>
+  </si>
+  <si>
+    <t>For Volume Control, the default values for the age brackets shall be: 1st, 2nd and 3rd - Off.</t>
+  </si>
+  <si>
+    <t>The FS platform shall provide the following default pediatric settings for selected HCP controls:</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>The age groups shall be continuous and not overplapping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FS Platform shall offer to set 3 age brackets with the following conditions: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Spatial Noise Management, the default values for the age brackets shall be: 1st - Off, 2nd and 3rd - On. </t>
+  </si>
+  <si>
+    <t>For Visual Indicators, the default values for the age brackets shall be: 1st , 2nd and 3rd - On.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Open Sound - Transition, the default values for the age brackets shall be: 1st  - LOW, 2nd and 3rd - MEDIUM. </t>
+  </si>
+  <si>
+    <t>Age shall be set between 0 and under 18 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Mute Function, the default values for the age brackets shall be: 1st , 2nd and 3rd - Off. </t>
+  </si>
+  <si>
+    <t>In the pediatric settings overview, the settings that can be configured in the preferences menu shall be editable and take effect in the fitting session.</t>
+  </si>
+  <si>
+    <t>The default range of the 3rd age bracket shall be from 11 to under 18 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Beeps, the default values for the age brackets shall be: 1st, 2nd and 3rd - Only jingle.  </t>
+  </si>
+  <si>
+    <t>The FS platform shall offer to reset these preferences to the defaults.</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>For Noise Reduction, the default values for the age brackets shall be: 1st , 2nd and 3rd - On.</t>
+  </si>
+  <si>
+    <t>For Noise Reduction - Complex, the default values for the age brackets shall be: 1st , 2nd : -5 dB, 3rd : -7 dB.</t>
+  </si>
+  <si>
+    <t>For Program Switch for user programs, the default values for the age brackets shall be: 1st,2nd and 3rd - Off.</t>
+  </si>
+  <si>
+    <t>The default range of the 1st age bracket shall be from 0 to under 4 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Noise Reduction - Simple, the default values for the age brackets shall be: 1st , 2nd and 3rd - 0 dB.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The preferences shall take effect for new HI style selection. </t>
+  </si>
+  <si>
+    <t>The FS platform shall provide the ability to use pediatric fitting mode for patients under the age of 18 years.</t>
+  </si>
+  <si>
+    <t>For Children (below age 18 years) no personalization will occur.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +478,46 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,10 +977,1376 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11996</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2700</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16916</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11995</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>18024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19466</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>19465</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>18444</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8491</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{305541CE-C117-4498-A0AA-C33954E82F7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65185944-C8C6-494C-BAE7-44357CFBBE4C}">
+  <dimension ref="A1:E228"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18024</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18024</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18024</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18024</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18024</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>18024</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18024</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18024</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>18024</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>19466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>18024</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>18024</v>
+      </c>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>18024</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>19456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>18024</v>
+      </c>
+      <c r="E65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>18024</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18024</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>18024</v>
+      </c>
+      <c r="E78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>18024</v>
+      </c>
+      <c r="E83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>19466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>19465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>18024</v>
+      </c>
+      <c r="E90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>18024</v>
+      </c>
+      <c r="E95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>18024</v>
+      </c>
+      <c r="E99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>19461</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>19466</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>19465</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>21786</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>21786</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>11139</v>
+      </c>
+      <c r="E110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>11996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>11995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>10864</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>13413</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>19456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>11455</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>84</v>
+      </c>
+      <c r="E177" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>21452</v>
+      </c>
+      <c r="E178" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>18241</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>21598</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>86</v>
+      </c>
+      <c r="E182" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>21598</v>
+      </c>
+      <c r="E183" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>18297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>10865</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>10865</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>10865</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>21453</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>18297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>11309</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>10854</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>18241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>13609</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>13609</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>13609</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>16916</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>8491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>